--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -131,6 +132,45 @@
   <si>
     <t>29/9/2019</t>
   </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>23/11/2019</t>
+  </si>
+  <si>
+    <t>16/11/2019</t>
+  </si>
+  <si>
+    <t>13/11/2019</t>
+  </si>
+  <si>
+    <t>31/11/2019</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>26/10/2019</t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>20/10/2019</t>
+  </si>
+  <si>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
+  </si>
+  <si>
+    <t>13/10/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -237,12 +277,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +632,7 @@
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -606,16 +646,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -688,8 +728,12 @@
       <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="7">
+        <v>43740</v>
+      </c>
+      <c r="H3" s="7">
+        <v>43747</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -737,18 +781,22 @@
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7">
+        <v>43748</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -779,8 +827,12 @@
       <c r="F6" s="7">
         <v>43739</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -801,18 +853,22 @@
       <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="10"/>
       <c r="E7" s="7">
         <v>43740</v>
       </c>
       <c r="F7" s="7">
         <v>43742</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -833,18 +889,22 @@
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10"/>
       <c r="E8" s="7">
         <v>43742</v>
       </c>
       <c r="F8" s="7">
         <v>43744</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -862,24 +922,28 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="7">
         <v>43745</v>
       </c>
       <c r="F9" s="7">
         <v>43748</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -903,18 +967,22 @@
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="10"/>
       <c r="E10" s="7">
         <v>43749</v>
       </c>
       <c r="F10" s="7">
         <v>43752</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -935,18 +1003,22 @@
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="10"/>
       <c r="E11" s="7">
         <v>43753</v>
       </c>
       <c r="F11" s="7">
         <v>43756</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -977,8 +1049,12 @@
       <c r="F12" s="7">
         <v>43758</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1002,18 +1078,22 @@
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="7">
         <v>43758</v>
       </c>
       <c r="F13" s="7">
         <v>43760</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43507</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1034,18 +1114,22 @@
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="7">
         <v>43761</v>
       </c>
       <c r="F14" s="7">
         <v>43763</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7">
+        <v>43771</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43772</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1079,8 +1163,12 @@
       <c r="F15" s="7">
         <v>43765</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="7">
+        <v>43773</v>
+      </c>
+      <c r="H15" s="7">
+        <v>43774</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1111,8 +1199,12 @@
       <c r="F16" s="7">
         <v>43767</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="7">
+        <v>43774</v>
+      </c>
+      <c r="H16" s="7">
+        <v>43775</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1144,8 +1236,12 @@
       <c r="F17" s="7">
         <v>43769</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7">
+        <v>43776</v>
+      </c>
+      <c r="H17" s="7">
+        <v>43777</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1177,8 +1273,12 @@
       <c r="F18" s="7">
         <v>43769</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="7">
+        <v>43778</v>
+      </c>
+      <c r="H18" s="7">
+        <v>43780</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1212,8 +1312,12 @@
       <c r="F19" s="7">
         <v>43772</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1247,8 +1351,12 @@
       <c r="F20" s="7">
         <v>43779</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
